--- a/Order_existing_clients.xlsx
+++ b/Order_existing_clients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbanai\Documents\Programming\Dezsi porject\Chatbot02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbanai\Documents\Programming\Dezsi porject\ChatFrontEnd\tutorial4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5316EB0-4F68-49B4-B4AD-CA2A3F55D331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC6B121-AC3F-4DAC-B8DD-3977A37A41DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31896" yWindow="1176" windowWidth="23040" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,16 +424,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F9" sqref="E1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="18.9296875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" customWidth="1"/>
-    <col min="4" max="4" width="20.86328125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">

--- a/Order_existing_clients.xlsx
+++ b/Order_existing_clients.xlsx
@@ -1,87 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbanai\Documents\Programming\Dezsi porject\ChatFrontEnd\tutorial4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC6B121-AC3F-4DAC-B8DD-3977A37A41DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="31896" yWindow="1176" windowWidth="23040" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Customer Number</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Eric Mariental</t>
-  </si>
-  <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>On the way to the client</t>
-  </si>
-  <si>
-    <t>Jeff Beck</t>
-  </si>
-  <si>
-    <t>Volkswagen</t>
-  </si>
-  <si>
-    <t>At manufacturing</t>
-  </si>
-  <si>
-    <t>Peter Gabriel</t>
-  </si>
-  <si>
-    <t>Mercedes</t>
-  </si>
-  <si>
-    <t>Dispatched</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,70 +420,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="E1:F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Customer Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Chat2023-12-12</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Eric Mariental</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>312</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>On the way to the client</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jeff Beck</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>412</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>At manufacturing</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Peter Gabriel</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>512</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mercedes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>USER: Hello Sue | ASSISTANT: Hello! How can I assist you today?USER: I would like to get some information regaring my existing order | ASSISTANT: Sure, I can help you with that. Please provide me with your client number.USER: 112 | ASSISTANT: I'm sorry, but I couldn't find any information regarding your order with the provided client number. Could you please double-check and provide me with the correct client number?USER: 512 | ASSISTANT: Thank you for providing your client number. I found your order details. Your order, a Mercedes, has been dispatched. Is there anything else I can assist you with?USER: I have one more question, do you have oil change service? | ASSISTANT: Yes, we offer oil change services. We have two options available: 
+1) Interim car service: This includes an oil change, oil filter change, and an inspection of the car's main components. The cost of the oil change is 100 USD, and the cost of the oil filter change is 50 USD. 
+2) Full car service: This is a more comprehensive service that includes a wider range of checks and service replacement parts. The cost of a full service is 1000 USD. 
+Please let me know if you would like to schedule an oil change service or if you have any other questions.</t>
+        </is>
       </c>
     </row>
   </sheetData>
